--- a/10.xlsx
+++ b/10.xlsx
@@ -395,818 +395,818 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.079315791554607</v>
+        <v>0.6337661916466972</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1927099895716</v>
+        <v>5.830213089394384</v>
       </c>
       <c r="C2" t="n">
-        <v>3.21310982922239</v>
+        <v>3.094518278707228</v>
       </c>
       <c r="D2" t="n">
-        <v>1.104162536998047</v>
+        <v>1.222370404000685</v>
       </c>
       <c r="E2" t="n">
-        <v>1.104162536998047</v>
+        <v>1.222370404000685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.082801555193267</v>
+        <v>0.7121127852519513</v>
       </c>
       <c r="B3" t="n">
-        <v>8.522982249258078</v>
+        <v>3.785339102611639</v>
       </c>
       <c r="C3" t="n">
-        <v>3.17485267373082</v>
+        <v>3.082689244888862</v>
       </c>
       <c r="D3" t="n">
-        <v>2.194281771997339</v>
+        <v>2.393325212000491</v>
       </c>
       <c r="E3" t="n">
-        <v>1.090119234999293</v>
+        <v>1.170954807999806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.050076406485017</v>
+        <v>0.7549576060412035</v>
       </c>
       <c r="B4" t="n">
-        <v>6.548921722451955</v>
+        <v>1.800670128731712</v>
       </c>
       <c r="C4" t="n">
-        <v>3.161397499063055</v>
+        <v>3.084507353416092</v>
       </c>
       <c r="D4" t="n">
-        <v>3.290967450997414</v>
+        <v>3.60308846100088</v>
       </c>
       <c r="E4" t="n">
-        <v>1.096685679000075</v>
+        <v>1.209763249000389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.02227699221906</v>
+        <v>0.9125250111340384</v>
       </c>
       <c r="B5" t="n">
-        <v>4.535031095433058</v>
+        <v>0.1795760824153216</v>
       </c>
       <c r="C5" t="n">
-        <v>3.148506559878708</v>
+        <v>3.118723117396167</v>
       </c>
       <c r="D5" t="n">
-        <v>4.384636380997108</v>
+        <v>4.670740947000013</v>
       </c>
       <c r="E5" t="n">
-        <v>1.093668929999694</v>
+        <v>1.067652485999133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.009571189995547</v>
+        <v>0.9377505382960583</v>
       </c>
       <c r="B6" t="n">
-        <v>2.539743166579965</v>
+        <v>2.188192385042868</v>
       </c>
       <c r="C6" t="n">
-        <v>3.146975679727653</v>
+        <v>3.125239868270238</v>
       </c>
       <c r="D6" t="n">
-        <v>5.487403805997019</v>
+        <v>5.749741430998256</v>
       </c>
       <c r="E6" t="n">
-        <v>1.102767424999911</v>
+        <v>1.079000483998243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.019643154630081</v>
+        <v>0.9736292544650267</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5179057801198841</v>
+        <v>4.126584842165631</v>
       </c>
       <c r="C7" t="n">
-        <v>3.145618591302007</v>
+        <v>3.151462548412264</v>
       </c>
       <c r="D7" t="n">
-        <v>6.593844570994406</v>
+        <v>6.748952791996999</v>
       </c>
       <c r="E7" t="n">
-        <v>1.106440764997387</v>
+        <v>0.9992113609987427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.026091620945907</v>
+        <v>0.9498105063065669</v>
       </c>
       <c r="B8" t="n">
-        <v>1.246703828777127</v>
+        <v>6.125746226594892</v>
       </c>
       <c r="C8" t="n">
-        <v>3.131894572000281</v>
+        <v>3.160063941681792</v>
       </c>
       <c r="D8" t="n">
-        <v>7.698961735994089</v>
+        <v>7.730934250997961</v>
       </c>
       <c r="E8" t="n">
-        <v>1.105117164999683</v>
+        <v>0.9819814590009628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.04701876126338</v>
+        <v>0.9229066161456259</v>
       </c>
       <c r="B9" t="n">
-        <v>3.248998572978941</v>
+        <v>7.615673917965498</v>
       </c>
       <c r="C9" t="n">
-        <v>3.132803375407164</v>
+        <v>3.30097319025595</v>
       </c>
       <c r="D9" t="n">
-        <v>8.797395302994119</v>
+        <v>8.633992889997899</v>
       </c>
       <c r="E9" t="n">
-        <v>1.098433567000029</v>
+        <v>0.9030586389999371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9985152239477</v>
+        <v>2.134375679420202</v>
       </c>
       <c r="B10" t="n">
-        <v>5.262639211521515</v>
+        <v>0.6118100983585757</v>
       </c>
       <c r="C10" t="n">
-        <v>3.150440584674802</v>
+        <v>1.502433361570376</v>
       </c>
       <c r="D10" t="n">
-        <v>9.796200137992855</v>
+        <v>9.541079983999225</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9988048349987366</v>
+        <v>0.9070870940013265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9852384575460738</v>
+        <v>0.3473451214021654</v>
       </c>
       <c r="B11" t="n">
-        <v>7.25508249588531</v>
+        <v>0.383043929593339</v>
       </c>
       <c r="C11" t="n">
-        <v>3.154313524106031</v>
+        <v>0.01365783050591762</v>
       </c>
       <c r="D11" t="n">
-        <v>10.7887399749925</v>
+        <v>10.5987774569985</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9925398369996401</v>
+        <v>1.05769747299928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.211038845773588</v>
+        <v>0.3054460091715598</v>
       </c>
       <c r="B12" t="n">
-        <v>2.216021337390934</v>
+        <v>0.2654555011798081</v>
       </c>
       <c r="C12" t="n">
-        <v>4.663969722756847</v>
+        <v>0.004629529840789459</v>
       </c>
       <c r="D12" t="n">
-        <v>11.70558369599166</v>
+        <v>11.64000601899897</v>
       </c>
       <c r="E12" t="n">
-        <v>0.916843720999168</v>
+        <v>1.04122856200047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.479623308193568</v>
+        <v>0.2225015954379659</v>
       </c>
       <c r="B13" t="n">
-        <v>1.759385721062253</v>
+        <v>0.2097608670178279</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2843247574100944</v>
+        <v>0.004323023666447767</v>
       </c>
       <c r="D13" t="n">
-        <v>12.77408977699088</v>
+        <v>12.67807247699966</v>
       </c>
       <c r="E13" t="n">
-        <v>1.068506080999214</v>
+        <v>1.038066458000685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5410780180431949</v>
+        <v>0.1790051460061308</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2326237780411633</v>
+        <v>0.1654660076448407</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01337949177102171</v>
+        <v>0.02961393426022685</v>
       </c>
       <c r="D14" t="n">
-        <v>13.84536944099091</v>
+        <v>13.71196566599974</v>
       </c>
       <c r="E14" t="n">
-        <v>1.071279664000031</v>
+        <v>1.033893189000082</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4220264019064195</v>
+        <v>0.1417178558645944</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1030840701647474</v>
+        <v>0.1473156118412521</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08703797081589748</v>
+        <v>0.04501270643713084</v>
       </c>
       <c r="D15" t="n">
-        <v>14.91625301399108</v>
+        <v>14.77548969000054</v>
       </c>
       <c r="E15" t="n">
-        <v>1.070883573000174</v>
+        <v>1.063524024000799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3323043505232066</v>
+        <v>0.08047648949391473</v>
       </c>
       <c r="B16" t="n">
-        <v>0.052455687767618</v>
+        <v>0.1112157412250968</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1009806931404444</v>
+        <v>0.04374221748358753</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9512017999914</v>
+        <v>15.7926990570013</v>
       </c>
       <c r="E16" t="n">
-        <v>1.034948786000314</v>
+        <v>1.01720936700076</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.224632440965538</v>
+        <v>0.01916135616906489</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06077472338156686</v>
+        <v>0.07322947639802269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0177890450209004</v>
+        <v>0.02268408708006575</v>
       </c>
       <c r="D17" t="n">
-        <v>16.98457053799211</v>
+        <v>16.79153365900129</v>
       </c>
       <c r="E17" t="n">
-        <v>1.033368738000718</v>
+        <v>0.9988346019999881</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1352380939355173</v>
+        <v>0.008779853784009362</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06281230884899891</v>
+        <v>0.04378630802041938</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01627728912028914</v>
+        <v>0.005606334962626747</v>
       </c>
       <c r="D18" t="n">
-        <v>18.01142242799324</v>
+        <v>17.78155579499798</v>
       </c>
       <c r="E18" t="n">
-        <v>1.026851890001126</v>
+        <v>0.9900221359966963</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1150969534255841</v>
+        <v>0.03256062725702513</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07334777568863915</v>
+        <v>0.02538855216605196</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02604423217831453</v>
+        <v>0.002203822766992047</v>
       </c>
       <c r="D19" t="n">
-        <v>19.04866209099418</v>
+        <v>18.79880926500118</v>
       </c>
       <c r="E19" t="n">
-        <v>1.037239663000946</v>
+        <v>1.017253470003197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1091610868689523</v>
+        <v>0.01644920037207775</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04777285987881275</v>
+        <v>0.0140485538156887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01642196160681486</v>
+        <v>0.007286177092484358</v>
       </c>
       <c r="D20" t="n">
-        <v>20.1125425289938</v>
+        <v>19.83262880199982</v>
       </c>
       <c r="E20" t="n">
-        <v>1.063880437999615</v>
+        <v>1.033819536998635</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0170689706014171</v>
+        <v>0.05112396954876619</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0014752780682874</v>
+        <v>0.001339126196015727</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03442188661322998</v>
+        <v>0.01745253912598166</v>
       </c>
       <c r="D21" t="n">
-        <v>21.07236168799136</v>
+        <v>20.79797885399967</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9598191589975613</v>
+        <v>0.9653500519998488</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.017068970601417</v>
+        <v>6.051123969548766</v>
       </c>
       <c r="B22" t="n">
-        <v>12.99852472193171</v>
+        <v>13.00133912619602</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03442188661322998</v>
+        <v>0.01745253912598166</v>
       </c>
       <c r="D22" t="n">
-        <v>21.15364034199229</v>
+        <v>20.89491419399928</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0812786540009256</v>
+        <v>0.09693533999961801</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.16305243279508</v>
+        <v>6.165226169478302</v>
       </c>
       <c r="B23" t="n">
-        <v>13.04782874794916</v>
+        <v>13.02492398854315</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006946677929260403</v>
+        <v>0.0406014987522143</v>
       </c>
       <c r="D23" t="n">
-        <v>22.13111795899385</v>
+        <v>21.83297586800109</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9774776170015684</v>
+        <v>0.9380616740018013</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.271528598486248</v>
+        <v>1.534403626166136</v>
       </c>
       <c r="B24" t="n">
-        <v>6.663019081575563</v>
+        <v>7.172503952949481</v>
       </c>
       <c r="C24" t="n">
-        <v>1.380206423529089</v>
+        <v>1.334535303513503</v>
       </c>
       <c r="D24" t="n">
-        <v>23.12588696899547</v>
+        <v>22.79597387000103</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9947690100016189</v>
+        <v>0.9629980019999493</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.669953941669281</v>
+        <v>0.3548073660067341</v>
       </c>
       <c r="B25" t="n">
-        <v>5.340371709095694</v>
+        <v>2.858243232696397</v>
       </c>
       <c r="C25" t="n">
-        <v>3.193834932804957</v>
+        <v>1.496269398652861</v>
       </c>
       <c r="D25" t="n">
-        <v>24.26104012099677</v>
+        <v>23.92497472400282</v>
       </c>
       <c r="E25" t="n">
-        <v>1.135153152001294</v>
+        <v>1.129000854001788</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7251003422484787</v>
+        <v>0.3989673290993947</v>
       </c>
       <c r="B26" t="n">
-        <v>3.6631396088962</v>
+        <v>1.637842100289872</v>
       </c>
       <c r="C26" t="n">
-        <v>3.179043495818262</v>
+        <v>1.525056340815671</v>
       </c>
       <c r="D26" t="n">
-        <v>25.40342494099605</v>
+        <v>25.0350630100038</v>
       </c>
       <c r="E26" t="n">
-        <v>1.142384819999279</v>
+        <v>1.110088286000973</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8378701361974259</v>
+        <v>0.3315440798719957</v>
       </c>
       <c r="B27" t="n">
-        <v>1.663208136742917</v>
+        <v>0.4229845299523145</v>
       </c>
       <c r="C27" t="n">
-        <v>3.156625658453989</v>
+        <v>1.237641408259833</v>
       </c>
       <c r="D27" t="n">
-        <v>26.53802718099541</v>
+        <v>26.15208452800289</v>
       </c>
       <c r="E27" t="n">
-        <v>1.134602239999367</v>
+        <v>1.117021517999092</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8957542656034574</v>
+        <v>0.3641251478812859</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2533036022462429</v>
+        <v>0.361988489732477</v>
       </c>
       <c r="C28" t="n">
-        <v>3.13945066431372</v>
+        <v>1.215665432250699</v>
       </c>
       <c r="D28" t="n">
-        <v>27.7021448739979</v>
+        <v>27.27602649000619</v>
       </c>
       <c r="E28" t="n">
-        <v>1.164117693002481</v>
+        <v>1.1239419620033</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8910139815458513</v>
+        <v>0.005872999540853741</v>
       </c>
       <c r="B29" t="n">
-        <v>2.233304171348776</v>
+        <v>0.4903538613434364</v>
       </c>
       <c r="C29" t="n">
-        <v>3.130868090934686</v>
+        <v>0.02701979708322888</v>
       </c>
       <c r="D29" t="n">
-        <v>28.88323249399764</v>
+        <v>28.42523624900423</v>
       </c>
       <c r="E29" t="n">
-        <v>1.181087619999744</v>
+        <v>1.14920975899804</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9565220023784611</v>
+        <v>0.01030711886874247</v>
       </c>
       <c r="B30" t="n">
-        <v>4.190998702205405</v>
+        <v>0.4312995313208212</v>
       </c>
       <c r="C30" t="n">
-        <v>3.170664833419444</v>
+        <v>0.04021666632336185</v>
       </c>
       <c r="D30" t="n">
-        <v>29.92407559699859</v>
+        <v>29.53851687300266</v>
       </c>
       <c r="E30" t="n">
-        <v>1.040843103000952</v>
+        <v>1.113280623998435</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9978643517315742</v>
+        <v>0.006992630649650833</v>
       </c>
       <c r="B31" t="n">
-        <v>6.204943360998993</v>
+        <v>0.3271126487380052</v>
       </c>
       <c r="C31" t="n">
-        <v>3.172713906362357</v>
+        <v>0.03978837255696188</v>
       </c>
       <c r="D31" t="n">
-        <v>30.99406197600183</v>
+        <v>30.66128441900219</v>
       </c>
       <c r="E31" t="n">
-        <v>1.06998637900324</v>
+        <v>1.122767545999523</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.13652832758968</v>
+        <v>0.02179784805212215</v>
       </c>
       <c r="B32" t="n">
-        <v>8.068848461240822</v>
+        <v>0.1469351359226652</v>
       </c>
       <c r="C32" t="n">
-        <v>3.24874007756482</v>
+        <v>0.01572196883290644</v>
       </c>
       <c r="D32" t="n">
-        <v>31.9556047799997</v>
+        <v>31.79034861400214</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9615428039978724</v>
+        <v>1.129064194999955</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.246127782934744</v>
+        <v>0.02113490884810854</v>
       </c>
       <c r="B33" t="n">
-        <v>10.06712763198983</v>
+        <v>0.1193542141267665</v>
       </c>
       <c r="C33" t="n">
-        <v>3.248629863434997</v>
+        <v>0.03815577755431754</v>
       </c>
       <c r="D33" t="n">
-        <v>32.89071940999929</v>
+        <v>32.90327680900009</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9351146299995889</v>
+        <v>1.112928194997949</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.113636830134284</v>
+        <v>0.03655462261186004</v>
       </c>
       <c r="B34" t="n">
-        <v>3.566435514469479</v>
+        <v>0.08858435508738349</v>
       </c>
       <c r="C34" t="n">
-        <v>4.61484665474595</v>
+        <v>0.04413475924098975</v>
       </c>
       <c r="D34" t="n">
-        <v>33.76547684399702</v>
+        <v>34.02644887500355</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8747574339977291</v>
+        <v>1.123172066003463</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.739653934890561</v>
+        <v>0.05120700043268989</v>
       </c>
       <c r="B35" t="n">
-        <v>7.101934311408707</v>
+        <v>0.05256287588958575</v>
       </c>
       <c r="C35" t="n">
-        <v>4.093928281044439</v>
+        <v>0.002914177783778449</v>
       </c>
       <c r="D35" t="n">
-        <v>34.75507003399616</v>
+        <v>35.1485066100031</v>
       </c>
       <c r="E35" t="n">
-        <v>0.989593189999141</v>
+        <v>1.122057734999544</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.144959379146115</v>
+        <v>0.07488628148106002</v>
       </c>
       <c r="B36" t="n">
-        <v>6.327948257875224</v>
+        <v>0.03743063979737227</v>
       </c>
       <c r="C36" t="n">
-        <v>1.45751999493953</v>
+        <v>0.007649623011618978</v>
       </c>
       <c r="D36" t="n">
-        <v>35.75696524299565</v>
+        <v>36.24747251200461</v>
       </c>
       <c r="E36" t="n">
-        <v>1.001895208999485</v>
+        <v>1.09896590200151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.277600542815207</v>
+        <v>0.08268643630351047</v>
       </c>
       <c r="B37" t="n">
-        <v>5.338344708011543</v>
+        <v>0.04017449369057968</v>
       </c>
       <c r="C37" t="n">
-        <v>1.465027843990383</v>
+        <v>0.006822760653212079</v>
       </c>
       <c r="D37" t="n">
-        <v>36.7448000599943</v>
+        <v>37.34972871900391</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9878348169986566</v>
+        <v>1.1022562069993</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2828580125335325</v>
+        <v>0.04834536349720775</v>
       </c>
       <c r="B38" t="n">
-        <v>4.357071486952043</v>
+        <v>0.0351492524728132</v>
       </c>
       <c r="C38" t="n">
-        <v>1.411727051370375</v>
+        <v>0.003539322143786272</v>
       </c>
       <c r="D38" t="n">
-        <v>37.64841945499575</v>
+        <v>38.43815209300737</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9036193950014422</v>
+        <v>1.088423374003469</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.453160410011519</v>
+        <v>0.0007875989655765636</v>
       </c>
       <c r="B39" t="n">
-        <v>5.391523335882296</v>
+        <v>0.0001668461562672752</v>
       </c>
       <c r="C39" t="n">
-        <v>3.095040361724992</v>
+        <v>0.003549062155104643</v>
       </c>
       <c r="D39" t="n">
-        <v>38.55744695699468</v>
+        <v>39.57194976900792</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9090275019989349</v>
+        <v>1.13379767600054</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7487478347990848</v>
+        <v>0.003166245679715018</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5902353191459535</v>
+        <v>0.008494685110062017</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5649316369008511</v>
+        <v>0.003107754736316082</v>
       </c>
       <c r="D40" t="n">
-        <v>39.65232518099219</v>
+        <v>40.67985252800645</v>
       </c>
       <c r="E40" t="n">
-        <v>1.094878223997512</v>
+        <v>1.107902758998534</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.6930250385679662</v>
+        <v>0.005917492591419382</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3172082935865328</v>
+        <v>0.02151625474081964</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1997604547985486</v>
+        <v>0.02530760915233188</v>
       </c>
       <c r="D41" t="n">
-        <v>40.73992478699074</v>
+        <v>41.69916719900357</v>
       </c>
       <c r="E41" t="n">
-        <v>1.087599605998548</v>
+        <v>1.019314670997119</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5408124172386453</v>
+        <v>0.005959141223510045</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1520819360418526</v>
+        <v>0.002037478057213549</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03101619114317484</v>
+        <v>0.02927919282825453</v>
       </c>
       <c r="D42" t="n">
-        <v>41.86251132599136</v>
+        <v>42.75425287900362</v>
       </c>
       <c r="E42" t="n">
-        <v>1.122586539000622</v>
+        <v>1.055085680000047</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2470280361415025</v>
+        <v>0.00973516810866748</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01724874603649562</v>
+        <v>0.002544102043698149</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04356739601216009</v>
+        <v>0.002983855957579884</v>
       </c>
       <c r="D43" t="n">
-        <v>42.93325314799222</v>
+        <v>43.65071554700626</v>
       </c>
       <c r="E43" t="n">
-        <v>1.070741822000855</v>
+        <v>0.8964626680026413</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1800914180719797</v>
+        <v>0.01086588429740232</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01726205628728605</v>
+        <v>0.00603124098547525</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04019865122109256</v>
+        <v>0.00207789612536402</v>
       </c>
       <c r="D44" t="n">
-        <v>43.97827979299109</v>
+        <v>44.53947323500688</v>
       </c>
       <c r="E44" t="n">
-        <v>1.04502664499887</v>
+        <v>0.8887576880006236</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1394907514939803</v>
+        <v>0.007691692206339695</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01301381111195354</v>
+        <v>0.01197656880527997</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04121567937580828</v>
+        <v>0.003712372244688567</v>
       </c>
       <c r="D45" t="n">
-        <v>45.0199046909911</v>
+        <v>45.35232623300544</v>
       </c>
       <c r="E45" t="n">
-        <v>1.041624898000009</v>
+        <v>0.8128529979985615</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.06624509213948038</v>
+        <v>0.007042397122731359</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01747422738089277</v>
+        <v>0.01583875890060948</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0266803925598198</v>
+        <v>0.00478201336983286</v>
       </c>
       <c r="D46" t="n">
-        <v>45.98172157199224</v>
+        <v>46.17833309900379</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9618168810011412</v>
+        <v>0.8260068659983517</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.003382884830051225</v>
+        <v>0.006981890805089819</v>
       </c>
       <c r="B47" t="n">
-        <v>0.004858729720342403</v>
+        <v>0.006282206866842444</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01151949203769309</v>
+        <v>0.01420686108237845</v>
       </c>
       <c r="D47" t="n">
-        <v>46.93761689699386</v>
+        <v>46.93353690100412</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9558953250016202</v>
+        <v>0.7552038020003238</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.01515029255017275</v>
+        <v>0.006112505381205224</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03940540957859717</v>
+        <v>0.01391428913669479</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01628682287056882</v>
+        <v>0.01362645119810946</v>
       </c>
       <c r="D48" t="n">
-        <v>47.89722230799453</v>
+        <v>47.68663330300478</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9596054110006662</v>
+        <v>0.753096402000665</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.03097665203102729</v>
+        <v>0.01138910485646782</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005068433965183416</v>
+        <v>0.02526252396051287</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03094781472553043</v>
+        <v>0.02802099207442588</v>
       </c>
       <c r="D49" t="n">
-        <v>48.86794851299419</v>
+        <v>48.44726108200484</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9707262049996643</v>
+        <v>0.7606277790000604</v>
       </c>
     </row>
   </sheetData>

--- a/10.xlsx
+++ b/10.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,818 +395,665 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6337661916466972</v>
+        <v>0.2666187871095242</v>
       </c>
       <c r="B2" t="n">
-        <v>5.830213089394384</v>
+        <v>0.4756952720808094</v>
       </c>
       <c r="C2" t="n">
-        <v>3.094518278707228</v>
+        <v>0.09439357547712923</v>
       </c>
       <c r="D2" t="n">
-        <v>1.222370404000685</v>
+        <v>1.106354890999683</v>
       </c>
       <c r="E2" t="n">
-        <v>1.222370404000685</v>
+        <v>1.106354890999683</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7121127852519513</v>
+        <v>0.1402559306666562</v>
       </c>
       <c r="B3" t="n">
-        <v>3.785339102611639</v>
+        <v>0.2301502199855285</v>
       </c>
       <c r="C3" t="n">
-        <v>3.082689244888862</v>
+        <v>0.03833356591072867</v>
       </c>
       <c r="D3" t="n">
-        <v>2.393325212000491</v>
+        <v>2.205336666999756</v>
       </c>
       <c r="E3" t="n">
-        <v>1.170954807999806</v>
+        <v>1.098981776000073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7549576060412035</v>
+        <v>0.0661657651175438</v>
       </c>
       <c r="B4" t="n">
-        <v>1.800670128731712</v>
+        <v>0.128625822381677</v>
       </c>
       <c r="C4" t="n">
-        <v>3.084507353416092</v>
+        <v>0.00937090041177413</v>
       </c>
       <c r="D4" t="n">
-        <v>3.60308846100088</v>
+        <v>3.304420744999334</v>
       </c>
       <c r="E4" t="n">
-        <v>1.209763249000389</v>
+        <v>1.099084077999578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9125250111340384</v>
+        <v>0.03607225780031076</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1795760824153216</v>
+        <v>0.08052915958568541</v>
       </c>
       <c r="C5" t="n">
-        <v>3.118723117396167</v>
+        <v>0.01005867282294126</v>
       </c>
       <c r="D5" t="n">
-        <v>4.670740947000013</v>
+        <v>4.389880882999023</v>
       </c>
       <c r="E5" t="n">
-        <v>1.067652485999133</v>
+        <v>1.085460137999689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9377505382960583</v>
+        <v>0.01405495153670255</v>
       </c>
       <c r="B6" t="n">
-        <v>2.188192385042868</v>
+        <v>0.04121164295660229</v>
       </c>
       <c r="C6" t="n">
-        <v>3.125239868270238</v>
+        <v>0.005104554769698844</v>
       </c>
       <c r="D6" t="n">
-        <v>5.749741430998256</v>
+        <v>5.462014981998436</v>
       </c>
       <c r="E6" t="n">
-        <v>1.079000483998243</v>
+        <v>1.072134098999413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9736292544650267</v>
+        <v>0.01532553563438577</v>
       </c>
       <c r="B7" t="n">
-        <v>4.126584842165631</v>
+        <v>0.1533916516999838</v>
       </c>
       <c r="C7" t="n">
-        <v>3.151462548412264</v>
+        <v>0.004021762145578478</v>
       </c>
       <c r="D7" t="n">
-        <v>6.748952791996999</v>
+        <v>6.576857237998411</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9992113609987427</v>
+        <v>1.114842255999974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9498105063065669</v>
+        <v>0.01282013541402249</v>
       </c>
       <c r="B8" t="n">
-        <v>6.125746226594892</v>
+        <v>0.1209751836337158</v>
       </c>
       <c r="C8" t="n">
-        <v>3.160063941681792</v>
+        <v>0.01967473819150278</v>
       </c>
       <c r="D8" t="n">
-        <v>7.730934250997961</v>
+        <v>7.66763465999793</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9819814590009628</v>
+        <v>1.090777421999519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9229066161456259</v>
+        <v>0.00080970511749201</v>
       </c>
       <c r="B9" t="n">
-        <v>7.615673917965498</v>
+        <v>0.004326092838542905</v>
       </c>
       <c r="C9" t="n">
-        <v>3.30097319025595</v>
+        <v>0.02286777809005525</v>
       </c>
       <c r="D9" t="n">
-        <v>8.633992889997899</v>
+        <v>8.760766599998533</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9030586389999371</v>
+        <v>1.093131940000603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.134375679420202</v>
+        <v>0.006478205078690902</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6118100983585757</v>
+        <v>0.02145710855257033</v>
       </c>
       <c r="C10" t="n">
-        <v>1.502433361570376</v>
+        <v>0.001222223486424312</v>
       </c>
       <c r="D10" t="n">
-        <v>9.541079983999225</v>
+        <v>9.876408902999174</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9070870940013265</v>
+        <v>1.115642303000641</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3473451214021654</v>
+        <v>0.03781666613246282</v>
       </c>
       <c r="B11" t="n">
-        <v>0.383043929593339</v>
+        <v>0.0005753483783417224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01365783050591762</v>
+        <v>0.008795177473992943</v>
       </c>
       <c r="D11" t="n">
-        <v>10.5987774569985</v>
+        <v>10.98095608499898</v>
       </c>
       <c r="E11" t="n">
-        <v>1.05769747299928</v>
+        <v>1.104547181999806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3054460091715598</v>
+        <v>0.03621322764125079</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2654555011798081</v>
+        <v>0.02873314836400587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004629529840789459</v>
+        <v>0.009009034925431259</v>
       </c>
       <c r="D12" t="n">
-        <v>11.64000601899897</v>
+        <v>12.09267040299892</v>
       </c>
       <c r="E12" t="n">
-        <v>1.04122856200047</v>
+        <v>1.11171431799994</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2225015954379659</v>
+        <v>0.04133435748810022</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2097608670178279</v>
+        <v>0.04933336818009826</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004323023666447767</v>
+        <v>0.01634144250006386</v>
       </c>
       <c r="D13" t="n">
-        <v>12.67807247699966</v>
+        <v>13.18128173599871</v>
       </c>
       <c r="E13" t="n">
-        <v>1.038066458000685</v>
+        <v>1.08861133299979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1790051460061308</v>
+        <v>0.02429889246066419</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1654660076448407</v>
+        <v>0.03159950864978556</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02961393426022685</v>
+        <v>0.0215059818403418</v>
       </c>
       <c r="D14" t="n">
-        <v>13.71196566599974</v>
+        <v>14.27991421499883</v>
       </c>
       <c r="E14" t="n">
-        <v>1.033893189000082</v>
+        <v>1.098632479000116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1417178558645944</v>
+        <v>0.01829401268443509</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1473156118412521</v>
+        <v>0.01729482577628505</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04501270643713084</v>
+        <v>0.0104533975483454</v>
       </c>
       <c r="D15" t="n">
-        <v>14.77548969000054</v>
+        <v>15.38550381199821</v>
       </c>
       <c r="E15" t="n">
-        <v>1.063524024000799</v>
+        <v>1.10558959699938</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.08047648949391473</v>
+        <v>0.05864703414581895</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1112157412250968</v>
+        <v>0.015754636674155</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04374221748358753</v>
+        <v>0.009703528008004447</v>
       </c>
       <c r="D16" t="n">
-        <v>15.7926990570013</v>
+        <v>16.48222360299769</v>
       </c>
       <c r="E16" t="n">
-        <v>1.01720936700076</v>
+        <v>1.096719790999487</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.01916135616906489</v>
+        <v>0.0594954425019969</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07322947639802269</v>
+        <v>0.01224271340003869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02268408708006575</v>
+        <v>0.001944789298904404</v>
       </c>
       <c r="D17" t="n">
-        <v>16.79153365900129</v>
+        <v>17.56250076899778</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9988346019999881</v>
+        <v>1.080277166000087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.008779853784009362</v>
+        <v>0.005354006149326906</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04378630802041938</v>
+        <v>0.01916598675978198</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005606334962626747</v>
+        <v>0.004844782572822837</v>
       </c>
       <c r="D18" t="n">
-        <v>17.78155579499798</v>
+        <v>18.6654517959978</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9900221359966963</v>
+        <v>1.102951027000017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.03256062725702513</v>
+        <v>0.02715863084237569</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02538855216605196</v>
+        <v>0.007900052698360027</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002203822766992047</v>
+        <v>0.004578938214549133</v>
       </c>
       <c r="D19" t="n">
-        <v>18.79880926500118</v>
+        <v>19.73101433999818</v>
       </c>
       <c r="E19" t="n">
-        <v>1.017253470003197</v>
+        <v>1.065562544000386</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.01644920037207775</v>
+        <v>0.01814791386835513</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0140485538156887</v>
+        <v>0.006420988354062129</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007286177092484358</v>
+        <v>6.42873910923214e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>19.83262880199982</v>
+        <v>20.83476696999787</v>
       </c>
       <c r="E20" t="n">
-        <v>1.033819536998635</v>
+        <v>1.10375262999969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05112396954876619</v>
+        <v>0.002623979262440734</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001339126196015727</v>
+        <v>0.006105942651362661</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01745253912598166</v>
+        <v>0.03465911087835138</v>
       </c>
       <c r="D21" t="n">
-        <v>20.79797885399967</v>
+        <v>21.82081450499754</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9653500519998488</v>
+        <v>0.9860475349996705</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.051123969548766</v>
+        <v>0.002623979262440734</v>
       </c>
       <c r="B22" t="n">
-        <v>13.00133912619602</v>
+        <v>0.006105942651362661</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01745253912598166</v>
+        <v>0.03465911087835138</v>
       </c>
       <c r="D22" t="n">
-        <v>20.89491419399928</v>
+        <v>21.90890119899814</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09693533999961801</v>
+        <v>0.08808669400059443</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.165226169478302</v>
+        <v>0.02115860234047506</v>
       </c>
       <c r="B23" t="n">
-        <v>13.02492398854315</v>
+        <v>0.03548385517147057</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0406014987522143</v>
+        <v>0.03066789476101217</v>
       </c>
       <c r="D23" t="n">
-        <v>21.83297586800109</v>
+        <v>22.89553507499841</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9380616740018013</v>
+        <v>0.9866338760002691</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.534403626166136</v>
+        <v>0.04062571291804584</v>
       </c>
       <c r="B24" t="n">
-        <v>7.172503952949481</v>
+        <v>0.05387503078347167</v>
       </c>
       <c r="C24" t="n">
-        <v>1.334535303513503</v>
+        <v>0.007074850568447921</v>
       </c>
       <c r="D24" t="n">
-        <v>22.79597387000103</v>
+        <v>23.87672868499794</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9629980019999493</v>
+        <v>0.9811936099995364</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.3548073660067341</v>
+        <v>0.04525383200367195</v>
       </c>
       <c r="B25" t="n">
-        <v>2.858243232696397</v>
+        <v>0.08278242322885987</v>
       </c>
       <c r="C25" t="n">
-        <v>1.496269398652861</v>
+        <v>0.00692293253088927</v>
       </c>
       <c r="D25" t="n">
-        <v>23.92497472400282</v>
+        <v>24.85892993099787</v>
       </c>
       <c r="E25" t="n">
-        <v>1.129000854001788</v>
+        <v>0.9822012459999314</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3989673290993947</v>
+        <v>0.09331687200152494</v>
       </c>
       <c r="B26" t="n">
-        <v>1.637842100289872</v>
+        <v>0.08798901511198221</v>
       </c>
       <c r="C26" t="n">
-        <v>1.525056340815671</v>
+        <v>0.0363877048835306</v>
       </c>
       <c r="D26" t="n">
-        <v>25.0350630100038</v>
+        <v>25.84835803399801</v>
       </c>
       <c r="E26" t="n">
-        <v>1.110088286000973</v>
+        <v>0.9894281030001366</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3315440798719957</v>
+        <v>0.08047840658556282</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4229845299523145</v>
+        <v>0.08921602323924116</v>
       </c>
       <c r="C27" t="n">
-        <v>1.237641408259833</v>
+        <v>0.01099556767931187</v>
       </c>
       <c r="D27" t="n">
-        <v>26.15208452800289</v>
+        <v>26.85895865199836</v>
       </c>
       <c r="E27" t="n">
-        <v>1.117021517999092</v>
+        <v>1.010600618000353</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.3641251478812859</v>
+        <v>0.04802960916331322</v>
       </c>
       <c r="B28" t="n">
-        <v>0.361988489732477</v>
+        <v>0.08392381731877219</v>
       </c>
       <c r="C28" t="n">
-        <v>1.215665432250699</v>
+        <v>0.001598655690236761</v>
       </c>
       <c r="D28" t="n">
-        <v>27.27602649000619</v>
+        <v>27.87182964599833</v>
       </c>
       <c r="E28" t="n">
-        <v>1.1239419620033</v>
+        <v>1.012870993999968</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.005872999540853741</v>
+        <v>0.03627605936998268</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4903538613434364</v>
+        <v>0.1270646051817037</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02701979708322888</v>
+        <v>0.001263691618826002</v>
       </c>
       <c r="D29" t="n">
-        <v>28.42523624900423</v>
+        <v>28.92268395299834</v>
       </c>
       <c r="E29" t="n">
-        <v>1.14920975899804</v>
+        <v>1.050854307000009</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.01030711886874247</v>
+        <v>0.03484740801596953</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4312995313208212</v>
+        <v>0.07976093384417471</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04021666632336185</v>
+        <v>0.00868727937905156</v>
       </c>
       <c r="D30" t="n">
-        <v>29.53851687300266</v>
+        <v>29.93326280699875</v>
       </c>
       <c r="E30" t="n">
-        <v>1.113280623998435</v>
+        <v>1.010578854000414</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.006992630649650833</v>
+        <v>0.0252517361807918</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3271126487380052</v>
+        <v>0.0644372752938045</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03978837255696188</v>
+        <v>0.002083646756961599</v>
       </c>
       <c r="D31" t="n">
-        <v>30.66128441900219</v>
+        <v>30.95178188799855</v>
       </c>
       <c r="E31" t="n">
-        <v>1.122767545999523</v>
+        <v>1.018519080999795</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.02179784805212215</v>
+        <v>0.01588774142106075</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1469351359226652</v>
+        <v>0.1061609198689633</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01572196883290644</v>
+        <v>0.02438726103781086</v>
       </c>
       <c r="D32" t="n">
-        <v>31.79034861400214</v>
+        <v>31.89162290899912</v>
       </c>
       <c r="E32" t="n">
-        <v>1.129064194999955</v>
+        <v>0.939841021000575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.02113490884810854</v>
+        <v>0.01574196276231099</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1193542141267665</v>
+        <v>0.1319823090737042</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03815577755431754</v>
+        <v>0.01702604032766253</v>
       </c>
       <c r="D33" t="n">
-        <v>32.90327680900009</v>
+        <v>32.80493404299887</v>
       </c>
       <c r="E33" t="n">
-        <v>1.112928194997949</v>
+        <v>0.9133111339997413</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.03655462261186004</v>
+        <v>0.009858842657512135</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08858435508738349</v>
+        <v>0.02299822616603464</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04413475924098975</v>
+        <v>0.03757973899259071</v>
       </c>
       <c r="D34" t="n">
-        <v>34.02644887500355</v>
+        <v>33.64712740699815</v>
       </c>
       <c r="E34" t="n">
-        <v>1.123172066003463</v>
+        <v>0.8421933639992858</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.05120700043268989</v>
+        <v>0.04603441835295952</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05256287588958575</v>
+        <v>0.003228559064488934</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002914177783778449</v>
+        <v>0.01457625679449137</v>
       </c>
       <c r="D35" t="n">
-        <v>35.1485066100031</v>
+        <v>34.48251318999792</v>
       </c>
       <c r="E35" t="n">
-        <v>1.122057734999544</v>
+        <v>0.8353857829997651</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.07488628148106002</v>
+        <v>0.02601959419858435</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03743063979737227</v>
+        <v>0.01037756339628126</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007649623011618978</v>
+        <v>0.002179402251311302</v>
       </c>
       <c r="D36" t="n">
-        <v>36.24747251200461</v>
+        <v>35.31620531899716</v>
       </c>
       <c r="E36" t="n">
-        <v>1.09896590200151</v>
+        <v>0.8336921289992461</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.08268643630351047</v>
+        <v>0.002647555471995577</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04017449369057968</v>
+        <v>0.0525512464847977</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006822760653212079</v>
+        <v>0.01714700623038645</v>
       </c>
       <c r="D37" t="n">
-        <v>37.34972871900391</v>
+        <v>36.1466045679972</v>
       </c>
       <c r="E37" t="n">
-        <v>1.1022562069993</v>
+        <v>0.8303992490000383</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.04834536349720775</v>
+        <v>0.05655493551631219</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0351492524728132</v>
+        <v>0.01881476397376436</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003539322143786272</v>
+        <v>0.004650926845540582</v>
       </c>
       <c r="D38" t="n">
-        <v>38.43815209300737</v>
+        <v>36.98509344799731</v>
       </c>
       <c r="E38" t="n">
-        <v>1.088423374003469</v>
+        <v>0.8384888800001136</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0007875989655765636</v>
+        <v>0.05648435899820692</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001668461562672752</v>
+        <v>0.009829401815009353</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003549062155104643</v>
+        <v>0.007701852082167449</v>
       </c>
       <c r="D39" t="n">
-        <v>39.57194976900792</v>
+        <v>37.82507250999697</v>
       </c>
       <c r="E39" t="n">
-        <v>1.13379767600054</v>
+        <v>0.8399790619996566</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.003166245679715018</v>
+        <v>0.03871490746165263</v>
       </c>
       <c r="B40" t="n">
-        <v>0.008494685110062017</v>
+        <v>0.006193370464254944</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003107754736316082</v>
+        <v>0.02676683463035445</v>
       </c>
       <c r="D40" t="n">
-        <v>40.67985252800645</v>
+        <v>38.67939815999762</v>
       </c>
       <c r="E40" t="n">
-        <v>1.107902758998534</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>0.005917492591419382</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.02151625474081964</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.02530760915233188</v>
-      </c>
-      <c r="D41" t="n">
-        <v>41.69916719900357</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.019314670997119</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0.005959141223510045</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.002037478057213549</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.02927919282825453</v>
-      </c>
-      <c r="D42" t="n">
-        <v>42.75425287900362</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.055085680000047</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>0.00973516810866748</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.002544102043698149</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.002983855957579884</v>
-      </c>
-      <c r="D43" t="n">
-        <v>43.65071554700626</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.8964626680026413</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0.01086588429740232</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.00603124098547525</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.00207789612536402</v>
-      </c>
-      <c r="D44" t="n">
-        <v>44.53947323500688</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.8887576880006236</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>0.007691692206339695</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.01197656880527997</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.003712372244688567</v>
-      </c>
-      <c r="D45" t="n">
-        <v>45.35232623300544</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.8128529979985615</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>0.007042397122731359</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.01583875890060948</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.00478201336983286</v>
-      </c>
-      <c r="D46" t="n">
-        <v>46.17833309900379</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.8260068659983517</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0.006981890805089819</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.006282206866842444</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.01420686108237845</v>
-      </c>
-      <c r="D47" t="n">
-        <v>46.93353690100412</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.7552038020003238</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>0.006112505381205224</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.01391428913669479</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.01362645119810946</v>
-      </c>
-      <c r="D48" t="n">
-        <v>47.68663330300478</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.753096402000665</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>0.01138910485646782</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.02526252396051287</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.02802099207442588</v>
-      </c>
-      <c r="D49" t="n">
-        <v>48.44726108200484</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.7606277790000604</v>
+        <v>0.8543256500006464</v>
       </c>
     </row>
   </sheetData>
